--- a/data/case1/5/P_device_3.xlsx
+++ b/data/case1/5/P_device_3.xlsx
@@ -56,32 +56,32 @@
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="13.7109375" customWidth="true"/>
     <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.04578603420334347</v>
+        <v>0.058184567309537812</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.04578603488801386</v>
+        <v>-0.058184567951516289</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.062859796040595523</v>
+        <v>0.015642298518720947</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.06285979671922097</v>
+        <v>-0.015642299182742819</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.071100579310156828</v>
+        <v>-0.076691841547231257</v>
       </c>
       <c r="B3" s="0">
-        <v>0.071100578614764612</v>
+        <v>0.076691840906616668</v>
       </c>
     </row>
     <row r="4">
